--- a/PJ管理/01.成果物/05.T_テスト／移行/1.仕様書/テスト仕様書兼報告書_DMS30201_検索閲覧出図画面_rev1.1.xlsx
+++ b/PJ管理/01.成果物/05.T_テスト／移行/1.仕様書/テスト仕様書兼報告書_DMS30201_検索閲覧出図画面_rev1.1.xlsx
@@ -5,25 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\04.T_テスト／移行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\DRASAP_Web\PJ管理\01.成果物\05.T_テスト／移行\1.仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90031B0F-6C18-4F32-8FE5-F369F48F613D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5711F7A0-D047-402B-AF9D-FD7C3B697F77}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="33120" windowHeight="18120" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="検索閲覧出図画面（日本語）" sheetId="2" r:id="rId1"/>
-    <sheet name="300_JP" sheetId="3" r:id="rId2"/>
-    <sheet name="301_JP" sheetId="4" r:id="rId3"/>
-    <sheet name="302_JP" sheetId="6" r:id="rId4"/>
-    <sheet name="303_JP" sheetId="5" r:id="rId5"/>
-    <sheet name="304_JP" sheetId="7" r:id="rId6"/>
-    <sheet name="305_JP" sheetId="10" r:id="rId7"/>
-    <sheet name="306_JP" sheetId="11" r:id="rId8"/>
-    <sheet name="307_JP" sheetId="12" r:id="rId9"/>
-    <sheet name="308_JP" sheetId="13" r:id="rId10"/>
-    <sheet name="309_JP" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -11722,4567 +11712,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="グループ化 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC4BAE2-123E-4816-B1C4-CCF71B101D56}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="476250"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="476250"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="図 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046682C3-8877-4B7B-805C-FB9720D446F5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="476250"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{631BA0BD-B221-4A50-AC3D-C4984D0CA49B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1304925" y="1381125"/>
-            <a:ext cx="3419475" cy="219075"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1571ADE7-02C8-4709-B71D-B3E2D68CF647}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3962399" y="1962150"/>
-            <a:ext cx="2790825" cy="828675"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -52880"/>
-              <a:gd name="adj2" fmla="val -93967"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>11</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>桁図番の場合（ハイフン抜きで）</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            </a:br>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番に</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>'A0005GM001*'</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>を使う</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="正方形/長方形 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B09A8FC-F65F-4A32-A390-33FFF9FE7CF6}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7810500" y="1409700"/>
-            <a:ext cx="228600" cy="247650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4837C141-D831-4EED-82ED-968793FFAA8D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8782050" y="1057275"/>
-            <a:ext cx="1543050" cy="752475"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -95524"/>
-              <a:gd name="adj2" fmla="val 16930"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>最新追番のチェックを外して検索</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="グループ化 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3ED5AA2-4ABC-4F5C-86E9-691BAE213EDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="11191875"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="11191875"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="図 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3E1AE5-C215-49D7-9171-0E521D97FCBC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="11191875"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C88037B-EFEC-4529-B74E-9B5A568DE42F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="104775" y="20783550"/>
-            <a:ext cx="3876675" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A19700D-4538-4D74-A2FC-A9A27ADE4455}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4410074" y="19402425"/>
-            <a:ext cx="2714625" cy="1133476"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -66288"/>
-              <a:gd name="adj2" fmla="val 85877"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>リビジョン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>A</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>～</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>Z</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>までの図面が</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>24</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件表示される</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>※</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>リビジョン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>I, O</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>は使用禁止文字なので存在しない</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E2EF12E-9A27-4A09-BA66-C8A7AE16224D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="238125"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="238125"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2423015B-877B-4C67-A368-718B1CE89B67}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="238125"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{722C4522-DFF0-43E4-82DF-EB5A505C5B4C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6115050" y="1190625"/>
-            <a:ext cx="1181100" cy="600075"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69FF82AC-E093-4613-A7BB-3CB8FDF28E74}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7781925" y="1381125"/>
-            <a:ext cx="247650" cy="180975"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048EE27B-B730-4C6E-BCE4-4E72E07837C0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5915025" y="1981200"/>
-            <a:ext cx="1800225" cy="895350"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -16071"/>
-              <a:gd name="adj2" fmla="val -71543"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番にワイルドカード</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>(*)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>を使用</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18E2FAF4-8C38-4CA3-9E43-DF9D1C40AB3E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8562975" y="1609725"/>
-            <a:ext cx="1800225" cy="895350"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -77447"/>
-              <a:gd name="adj2" fmla="val -55586"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番指定順</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>ON</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE09C80-C47A-4F45-A88F-EA89EAF6A825}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="10953750"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="10953750"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="図 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAC8F585-8873-4825-8A10-066E7C442891}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="10953750"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6DEE02F-427E-4623-9E4C-D7FD0F53B0D1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7105650" y="11610975"/>
-            <a:ext cx="4124325" cy="942975"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E8B4C0-5071-44C6-9AF3-365982C57FEE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11287124" y="11106150"/>
-            <a:ext cx="2124075" cy="933450"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -52206"/>
-              <a:gd name="adj2" fmla="val 78442"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>ダイアログが開き、</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番指定順の場合、ワイルドカードは使用できません。</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="グループ化 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4F9D0D-B664-4D90-80DB-E93A1B732B79}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="238125"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="238125"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2ACBE4E-1B0E-4B58-B4BD-444BF42132A4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="238125"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F0AFD34-B3EA-4345-96A6-922885EB1CBD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1266825" y="1133475"/>
-            <a:ext cx="3543300" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2348E506-F3DB-49C7-9093-F84E04A9D94E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7791450" y="1152525"/>
-            <a:ext cx="247650" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F95BE472-D0BD-49C8-A2E4-81136FE77B31}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3343275" y="1619250"/>
-            <a:ext cx="2647950" cy="771525"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -29166"/>
-              <a:gd name="adj2" fmla="val -84414"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>11</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>桁図番の場合（ハイフン抜きで）</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            </a:br>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>※</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番に</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>'A0005GM001*'</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>を使う</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4360FC7-ABAE-46B8-BD50-65AAEFBA7968}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8315325" y="1457325"/>
-            <a:ext cx="1828800" cy="771525"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -65104"/>
-              <a:gd name="adj2" fmla="val -65896"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>最新追番のチェックを入れて検索</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0971C645-8690-4CC4-BCD0-21DC3E7F2F84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="10715625"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="10715625"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="図 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84206D02-4ED9-43BF-AF73-F37C4A050878}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="10715625"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA552392-451D-4EF5-ABDC-F461E270232B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19050" y="14077950"/>
-            <a:ext cx="11029950" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71F0B6EF-1419-4E3B-9892-9537BD8ECDD7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6829425" y="14516100"/>
-            <a:ext cx="2981325" cy="485775"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -37446"/>
-              <a:gd name="adj2" fmla="val -84263"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>リビジョン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>Z</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>のみの図面が</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件表示される</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>478803</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>153783</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AD2901E-B041-4A43-90B4-C5EC473E78AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="19050" y="247650"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="19050" y="247650"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="図 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C46D5D3C-1A6C-4ABD-B9CA-D2D8B64C448C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="19050" y="247650"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD84A3E-829D-4D85-A775-58B120E06E51}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1304925" y="1143000"/>
-            <a:ext cx="3495675" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4805C02A-13F7-4C73-8F05-2103DF048843}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2447925" y="1704975"/>
-            <a:ext cx="2609850" cy="895350"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -47889"/>
-              <a:gd name="adj2" fmla="val -89306"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>12</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>桁図番の場合（ハイフン抜きで）</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D6D6B50-532C-4385-AAB9-A8272EFFB7ED}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7781925" y="1190625"/>
-            <a:ext cx="266700" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F03A623-17C3-4D2B-82BD-D70EB210CF99}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8743950" y="904875"/>
-            <a:ext cx="1666875" cy="828675"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -90547"/>
-              <a:gd name="adj2" fmla="val -1868"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>最新追番のチェックを外して検索</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="グループ化 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97E22933-E7D3-485F-8BB3-2143828CF337}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="10953750"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="10953750"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="10" name="図 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C6F8E2-1951-480F-86AC-700B257B61AE}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="10953750"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7907B5D-EEFF-4215-AE45-14BFC7C75D63}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="104775" y="20564475"/>
-            <a:ext cx="4276725" cy="238125"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7EAB7F-069A-4D22-BEBF-9DDDB2DC3AE9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5029200" y="19402425"/>
-            <a:ext cx="3305175" cy="1009650"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -69248"/>
-              <a:gd name="adj2" fmla="val 74764"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>リビジョン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>AA</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>～</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>BN</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>までの図面が</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>35</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件表示される</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>※</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>リビジョン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>I, O</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>は使用禁止文字なので存在しない</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2ABC0E-83BD-4DA9-A37D-55A84CE9E8E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="238125"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="238125"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D831748-253E-4098-AF7C-9E9230BB13ED}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="238125"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573D7DF1-6ECB-4725-9067-261FA4D1E631}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1276350" y="1152525"/>
-            <a:ext cx="3514725" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C1DE39-2780-4D8D-B637-1B4B34C196D2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7810501" y="1190625"/>
-            <a:ext cx="209550" cy="209550"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C972E68-AC47-4E6E-B50E-1011BA0C6F6D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3667125" y="1714500"/>
-            <a:ext cx="3371850" cy="1000125"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -47662"/>
-              <a:gd name="adj2" fmla="val -81568"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>12</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>桁図番の場合（ハイフン抜きで）</a:t>
-            </a:r>
-            <a:br>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            </a:br>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>※</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番に</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>'SM03BCFA01*'</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>を使う</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970EF719-9DA9-40EB-9BC0-D1FE0DF97F50}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7953375" y="1514475"/>
-            <a:ext cx="2657476" cy="514349"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -47662"/>
-              <a:gd name="adj2" fmla="val -81568"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>最新追番のチェックを入れて検索</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="グループ化 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C47C6B29-B8FE-4448-91B3-99CFA53ADDD1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="10715625"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="10715625"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="図 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44A76CF-A231-4842-9AB1-7CFE29B9D51F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="10715625"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6739205-785E-43B1-ADBD-A68F16BCDAA0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="85725" y="14106525"/>
-            <a:ext cx="10953750" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57603C1A-5E93-4C95-AEDD-465A9BDCE2E1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11982450" y="13992226"/>
-            <a:ext cx="3248025" cy="400050"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -78311"/>
-              <a:gd name="adj2" fmla="val 8446"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>リビジョン</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>BN</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>のみの図面が</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件表示される</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E7840E0-0A2C-4A5D-B50B-EAB15D12F91B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="18290553" cy="10145508"/>
-          <a:chOff x="0" y="0"/>
-          <a:chExt cx="18290553" cy="10145508"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="図 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4664F5B0-1050-422F-9EA7-C1148DD172FF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="238125"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A89CB86-C740-482A-9CBA-0544AC8E69D9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6629400" y="0"/>
-            <a:ext cx="3086100" cy="1038225"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -35957"/>
-              <a:gd name="adj2" fmla="val 67088"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件までの図番入力</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62E51DF-912C-4B2D-82BB-B3F98A86DF46}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7820025" y="1200150"/>
-            <a:ext cx="209550" cy="209550"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A637D9AD-B4EE-43C9-9601-4863D276F672}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9248775" y="1276350"/>
-            <a:ext cx="1685925" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -121398"/>
-              <a:gd name="adj2" fmla="val -22917"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番指定順</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>OFF</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="グループ化 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E534C241-5F9F-49B3-9CAD-368083D33981}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="10953750"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="10953750"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="13" name="図 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABF4EAA-A99B-413E-AFA2-C1226CF20674}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="10953750"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="吹き出し: 四角形 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340692A5-6A56-4918-82AE-D4BA5ABF89D4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12353925" y="15906750"/>
-            <a:ext cx="5362575" cy="1400175"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -61508"/>
-              <a:gd name="adj2" fmla="val 68622"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>検索条件にヒットした図面が、図番の昇順にソートされ表示される</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>77583</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="13" name="グループ化 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74B68BF-1C82-4F49-8353-B0F497CE1340}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="28575"/>
-          <a:ext cx="18290553" cy="10050258"/>
-          <a:chOff x="0" y="28575"/>
-          <a:chExt cx="18290553" cy="10050258"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="図 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91B46126-62E5-4E86-A124-216B983E1D2A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="171450"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2767A734-334F-49B3-8C00-B89ACA7EF312}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6076950" y="1152525"/>
-            <a:ext cx="1162050" cy="1171575"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C32C26EF-16AA-4CEB-9690-2E3E809E0B57}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7781925" y="1266825"/>
-            <a:ext cx="2686050" cy="257175"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B398D1-0474-402B-A45C-07326B42CDD1}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6648450" y="28575"/>
-            <a:ext cx="3619500" cy="847725"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -34780"/>
-              <a:gd name="adj2" fmla="val 86096"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件までの図番入力</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D126F07-62B3-46B7-892C-D97478B387B2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11106150" y="742950"/>
-            <a:ext cx="1685925" cy="704850"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -90325"/>
-              <a:gd name="adj2" fmla="val 63851"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番指定順</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>ON</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="グループ化 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92540622-670B-4AD0-AE6B-8EFDB2161E59}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="10715625"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="10715625"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="図 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EF2F632-3C05-4148-9776-030A3B89B6BB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="10715625"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6636A4-E992-4E1D-A11A-44DEDA1E02BF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12439650" y="14944725"/>
-            <a:ext cx="3590925" cy="2371725"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -73618"/>
-              <a:gd name="adj2" fmla="val 56878"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>検索条件にヒットした図面が、複数図番の入力順に表示される</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB3B62B-589C-44FB-92B2-7CDB02810FEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="238125"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="238125"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="図 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66F278D-EABA-40AC-B7A8-AF2A45A9F34D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="238125"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC49D916-ADCF-49DD-B95A-B8EC6CB17E80}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6105525" y="1190625"/>
-            <a:ext cx="1209675" cy="1266825"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B22E0818-3AD6-4AB8-AFA3-68D799A8FA1A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7848600" y="1390650"/>
-            <a:ext cx="2657475" cy="209550"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D91E05D-D30A-44A3-BF70-99ECEFDCF060}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5410200" y="2657475"/>
-            <a:ext cx="2000250" cy="866775"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val 30596"/>
-              <a:gd name="adj2" fmla="val -71566"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件を超える図番入力</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7506A000-FAC3-4D22-BF01-126C5CA09C07}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9534525" y="1885950"/>
-            <a:ext cx="2000250" cy="866775"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -24166"/>
-              <a:gd name="adj2" fmla="val -81456"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番指定順</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>OFF</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="グループ化 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811EFADB-7547-44FA-936E-F3303F9E6A92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="10715625"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="10715625"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="11" name="図 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8DB2014-0951-4522-B414-1BDB7F86BFE4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="10715625"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC0CFDC3-55E6-491B-8C96-A281D5667DDB}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7029450" y="13592175"/>
-            <a:ext cx="4238625" cy="809625"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="吹き出し: 四角形 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC06696F-465B-442D-BBE0-E618C5B890BA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11915775" y="13496925"/>
-            <a:ext cx="3200400" cy="1057275"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -71973"/>
-              <a:gd name="adj2" fmla="val 12943"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>警告</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>度の検索で指定可能な図番の件数は</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件です。</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番の件数を</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件以下にしてください。</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="7" name="グループ化 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA825EC-CB52-4286-97B8-182753DE718B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="476250"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="476250"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7543370B-2986-43A1-B247-B87CB9244B7E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="476250"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5DED758-08EC-4001-919D-7EC0BAD391DA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6124574" y="1409700"/>
-            <a:ext cx="1543051" cy="1304925"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180A1230-16A9-46A2-9B92-0D8162AED6EC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7762875" y="1590675"/>
-            <a:ext cx="257175" cy="228600"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D920BB-C382-4BA9-8749-470DF90C1061}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6124575" y="2933700"/>
-            <a:ext cx="2057400" cy="1000125"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -25463"/>
-              <a:gd name="adj2" fmla="val -70833"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件を超える図番入力</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53AE3C2-94CB-49F2-B439-A319D1A6B330}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9086850" y="1533525"/>
-            <a:ext cx="2057400" cy="1000125"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -101389"/>
-              <a:gd name="adj2" fmla="val -29881"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番指定順</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>OFF</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="グループ化 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A1E5C8D-2FDB-4BC3-A2FF-21D6C16EB86D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="10953750"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="10953750"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="8" name="図 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7F24DA-B1EF-4BD8-B462-59E3B20FADE9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="10953750"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="正方形/長方形 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2256C5A8-7995-49A0-AB83-D5016AD74B1D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6991350" y="13630275"/>
-            <a:ext cx="4238625" cy="809625"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="吹き出し: 四角形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC36B7C-152D-404E-A46D-C78972891B65}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="11877675" y="13535025"/>
-            <a:ext cx="3200400" cy="1057275"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -71973"/>
-              <a:gd name="adj2" fmla="val 12943"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>警告</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>度の検索で指定可能な図番の件数は</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件です。</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番の件数を</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>1000</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>件以下にしてください。</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>163308</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DC22F95-A55C-4341-9642-E4683781E1A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="733425"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="733425"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1878A035-A6D5-437B-876A-4FCFC350A2A4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="733425"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DA07B4-E9E9-49EE-98BD-83218DB6A25D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6029325" y="1619250"/>
-            <a:ext cx="1304925" cy="628650"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E17984F-6A4F-4E1B-8DFA-27C52DE337DC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7791450" y="1876425"/>
-            <a:ext cx="257175" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B63E498A-420F-4D8C-AA8B-23B66D3AA188}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6010275" y="2428875"/>
-            <a:ext cx="1409700" cy="809625"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -18806"/>
-              <a:gd name="adj2" fmla="val -71618"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番にワイルドカード</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>(*)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>を使用</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE052B9-3B08-4244-AC05-D9E6959E980F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9067800" y="2009775"/>
-            <a:ext cx="1409700" cy="809625"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -122860"/>
-              <a:gd name="adj2" fmla="val -46912"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>図番指定順</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-              <a:t>OFF</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>459753</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>144258</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="12" name="グループ化 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F887BD2A-9FFA-4E2B-A71E-A45041D65BBC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="11430000"/>
-          <a:ext cx="18290553" cy="9907383"/>
-          <a:chOff x="0" y="11430000"/>
-          <a:chExt cx="18290553" cy="9907383"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="9" name="図 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04CE88B-6482-4BAA-B78B-5E520202CCF3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="11430000"/>
-            <a:ext cx="18290553" cy="9907383"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="正方形/長方形 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E10B3A6-96B1-4D13-8728-39CDDBE2D963}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="47625" y="14668500"/>
-            <a:ext cx="12125325" cy="1695450"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD42F7A-C21B-446A-8604-419E4B3B5C6B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="12944475" y="14478000"/>
-            <a:ext cx="3124200" cy="1304925"/>
-          </a:xfrm>
-          <a:prstGeom prst="wedgeRectCallout">
-            <a:avLst>
-              <a:gd name="adj1" fmla="val -75711"/>
-              <a:gd name="adj2" fmla="val 45712"/>
-            </a:avLst>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-              <a:t>検索条件にヒットした図面が、図番の昇順にソートされ表示される</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -16548,8 +11977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C192" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I205" sqref="I205"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -30718,167 +26147,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0AF5F5-346B-4CB1-8EA5-5D4FC3781B7A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5633B90-2517-42D6-A961-7CD6371084BB}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90034C3-639C-41CC-AE53-97760CD59179}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DE9434-D8EB-4081-8315-FCCA34F08A6F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E3C42F-4B57-4B90-94A8-30C5BD82B6D9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262B0213-0167-4862-AF53-0FDC0151E067}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57BC045-CAEB-4BFF-A752-E83FEF4E4A3D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7951CF25-7EEC-494C-B719-70E8AC35907A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6ACC998-3BB7-40A7-BA79-7437C4151E8A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A40041-058A-444A-982F-DE8CF35340CD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B932A2821493BB4AB71A0C79347FD678" ma:contentTypeVersion="13" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="528594b33024f52b27c0b5dcdc9dfa0b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xmlns:ns3="e8618445-b921-4c48-afdf-14e883213c59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25e4712d85e376121aa3366c94b400a9" ns2:_="" ns3:_="">
     <xsd:import namespace="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
@@ -31101,27 +26390,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e8618445-b921-4c48-afdf-14e883213c59">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19942A3C-1E34-4C78-937D-DD2BA9D69AD2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B9E712-DB5C-45E2-9DDC-4524B210B021}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
+    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12A8846C-59E6-49DE-8953-A076C34F38C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31138,23 +26426,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30B9E712-DB5C-45E2-9DDC-4524B210B021}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e8618445-b921-4c48-afdf-14e883213c59"/>
-    <ds:schemaRef ds:uri="85d2ad52-74ac-4f33-99b9-ed27c5c58b6d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19942A3C-1E34-4C78-937D-DD2BA9D69AD2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>